--- a/biology/Médecine/André_Hoffmann_(homme_d'affaires)/André_Hoffmann_(homme_d'affaires).xlsx
+++ b/biology/Médecine/André_Hoffmann_(homme_d'affaires)/André_Hoffmann_(homme_d'affaires).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Hoffmann_(homme_d%27affaires)</t>
+          <t>André_Hoffmann_(homme_d'affaires)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">André Hoffmann (né le 31 mai 1958) est un homme d'affaires suisse. Il est l'arrière-petit-fils de Fritz Hoffmann-La Roche et membre du conseil d'administration de la firme pharmaceutique créée par son arrière-grand-père. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Andr%C3%A9_Hoffmann_(homme_d%27affaires)</t>
+          <t>André_Hoffmann_(homme_d'affaires)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,12 +525,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-André Hoffmann est le fils de Lukas Hoffmann et a deux sœurs, Vera Michalski et Maja Hoffmann. Il est marié à Rosalie Coombe-Tennant (devenue Rosalie Hoffmann) ; ils ont une fille et deux fils[1].
-Il est le porte-parole représentant la famille Hoffmann-Oeri qui est l'actionnaire majoritaire de l’entreprise pharmaceutique suisse Hoffmann-La Roche[2],[1]. En 2019, le magazine Bilan estime la fortune de la famille Hoffmann-Oeri à 28 milliards de francs suisses[1].
-Engagement
-André Hoffman a aussi été vice-président du Fonds mondial pour la nature (WWF) pendant dix ans (jusqu'en 2018)[1]. Il tient un discours engagé contre la maximisation des profits à court terme et pour des réformes du système capitaliste[1].
-Il est membre du conseil d'administration du Forum économique mondial[3].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Hoffmann est le fils de Lukas Hoffmann et a deux sœurs, Vera Michalski et Maja Hoffmann. Il est marié à Rosalie Coombe-Tennant (devenue Rosalie Hoffmann) ; ils ont une fille et deux fils.
+Il est le porte-parole représentant la famille Hoffmann-Oeri qui est l'actionnaire majoritaire de l’entreprise pharmaceutique suisse Hoffmann-La Roche,. En 2019, le magazine Bilan estime la fortune de la famille Hoffmann-Oeri à 28 milliards de francs suisses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>André_Hoffmann_(homme_d'affaires)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Andr%C3%A9_Hoffmann_(homme_d%27affaires)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">André Hoffman a aussi été vice-président du Fonds mondial pour la nature (WWF) pendant dix ans (jusqu'en 2018). Il tient un discours engagé contre la maximisation des profits à court terme et pour des réformes du système capitaliste.
+Il est membre du conseil d'administration du Forum économique mondial.
 </t>
         </is>
       </c>
